--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:12:46+00:00</t>
+    <t>2023-05-07T19:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:13:00+00:00</t>
+    <t>2023-05-07T19:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:16:02+00:00</t>
+    <t>2023-05-07T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:08:14+00:00</t>
+    <t>2023-05-07T21:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:39:12+00:00</t>
+    <t>2023-05-07T21:52:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:52:36+00:00</t>
+    <t>2023-05-07T22:07:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:07:44+00:00</t>
+    <t>2023-05-07T22:12:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 TC</t>
+    <t>HL7 PT TC</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:12:24+00:00</t>
+    <t>2023-05-07T22:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:29:01+00:00</t>
+    <t>2023-05-07T22:36:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:36:34+00:00</t>
+    <t>2023-05-07T22:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:59:45+00:00</t>
+    <t>2023-05-07T23:08:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:08:30+00:00</t>
+    <t>2023-05-07T23:16:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:16:14+00:00</t>
+    <t>2023-05-07T23:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:22:06+00:00</t>
+    <t>2023-05-07T23:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:26:27+00:00</t>
+    <t>2023-05-07T23:39:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -132,7 +132,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:DataElement</t>
+    <t>element:Resource</t>
   </si>
   <si>
     <t>ID</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="251">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:39:48+00:00</t>
+    <t>2023-05-08T00:33:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -389,6 +389,9 @@
     <t>required</t>
   </si>
   <si>
+    <t>http://example.com/fhir/example/ValueSet/AddressTypeVS</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -769,6 +772,9 @@
   </si>
   <si>
     <t>Extension.extension:country.value[x]</t>
+  </si>
+  <si>
+    <t>urn:iso:std:iso:3166</t>
   </si>
   <si>
     <t>base64Binary
@@ -1134,7 +1140,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.0234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2052,7 +2058,7 @@
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>76</v>
@@ -2070,7 +2076,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2090,13 +2096,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>76</v>
@@ -2195,7 +2201,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>104</v>
@@ -2298,7 +2304,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>106</v>
@@ -2401,7 +2407,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>108</v>
@@ -2444,7 +2450,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>76</v>
@@ -2506,7 +2512,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>116</v>
@@ -2532,7 +2538,7 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>118</v>
@@ -2589,7 +2595,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2609,13 +2615,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
@@ -2640,7 +2646,7 @@
         <v>90</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>102</v>
@@ -2714,7 +2720,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>104</v>
@@ -2817,7 +2823,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>106</v>
@@ -2920,7 +2926,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>108</v>
@@ -2963,7 +2969,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>76</v>
@@ -3025,7 +3031,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>116</v>
@@ -3051,7 +3057,7 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>118</v>
@@ -3108,7 +3114,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3128,13 +3134,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>76</v>
@@ -3159,7 +3165,7 @@
         <v>90</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>102</v>
@@ -3233,7 +3239,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>104</v>
@@ -3336,7 +3342,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>106</v>
@@ -3439,7 +3445,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>108</v>
@@ -3482,7 +3488,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>76</v>
@@ -3544,7 +3550,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>116</v>
@@ -3570,7 +3576,7 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>118</v>
@@ -3627,7 +3633,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3647,13 +3653,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>76</v>
@@ -3678,7 +3684,7 @@
         <v>90</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>102</v>
@@ -3752,7 +3758,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>104</v>
@@ -3855,7 +3861,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>106</v>
@@ -3958,7 +3964,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
@@ -4001,7 +4007,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>76</v>
@@ -4063,7 +4069,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>116</v>
@@ -4089,7 +4095,7 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>118</v>
@@ -4146,7 +4152,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4166,13 +4172,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>76</v>
@@ -4197,7 +4203,7 @@
         <v>90</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>102</v>
@@ -4271,7 +4277,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>104</v>
@@ -4374,7 +4380,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>106</v>
@@ -4477,7 +4483,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
@@ -4520,7 +4526,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>76</v>
@@ -4582,7 +4588,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>116</v>
@@ -4608,7 +4614,7 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>118</v>
@@ -4665,7 +4671,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -4685,13 +4691,13 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>76</v>
@@ -4716,7 +4722,7 @@
         <v>90</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>102</v>
@@ -4790,7 +4796,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>104</v>
@@ -4893,7 +4899,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>106</v>
@@ -4996,7 +5002,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>108</v>
@@ -5039,7 +5045,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>76</v>
@@ -5101,7 +5107,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>116</v>
@@ -5127,7 +5133,7 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>118</v>
@@ -5184,7 +5190,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5204,13 +5210,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>76</v>
@@ -5235,7 +5241,7 @@
         <v>90</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>102</v>
@@ -5309,7 +5315,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>104</v>
@@ -5412,7 +5418,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>106</v>
@@ -5515,7 +5521,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>108</v>
@@ -5558,7 +5564,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>76</v>
@@ -5620,7 +5626,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>116</v>
@@ -5646,7 +5652,7 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>118</v>
@@ -5703,7 +5709,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -5723,13 +5729,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>76</v>
@@ -5754,7 +5760,7 @@
         <v>90</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>102</v>
@@ -5828,7 +5834,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>104</v>
@@ -5931,7 +5937,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>106</v>
@@ -6034,7 +6040,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>108</v>
@@ -6077,7 +6083,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>76</v>
@@ -6139,7 +6145,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>116</v>
@@ -6165,7 +6171,7 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>118</v>
@@ -6222,7 +6228,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6242,13 +6248,13 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>76</v>
@@ -6273,7 +6279,7 @@
         <v>90</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>102</v>
@@ -6347,7 +6353,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>104</v>
@@ -6450,7 +6456,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>106</v>
@@ -6553,7 +6559,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>108</v>
@@ -6596,7 +6602,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>76</v>
@@ -6658,7 +6664,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>116</v>
@@ -6684,7 +6690,7 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>118</v>
@@ -6741,7 +6747,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -6761,13 +6767,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>76</v>
@@ -6792,7 +6798,7 @@
         <v>90</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>102</v>
@@ -6866,7 +6872,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>104</v>
@@ -6969,7 +6975,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>106</v>
@@ -7072,7 +7078,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>108</v>
@@ -7115,7 +7121,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>76</v>
@@ -7177,7 +7183,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>116</v>
@@ -7203,7 +7209,7 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>118</v>
@@ -7260,7 +7266,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -7280,13 +7286,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>76</v>
@@ -7311,7 +7317,7 @@
         <v>90</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>102</v>
@@ -7385,7 +7391,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>104</v>
@@ -7488,7 +7494,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>106</v>
@@ -7591,7 +7597,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>108</v>
@@ -7634,7 +7640,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>76</v>
@@ -7696,7 +7702,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>116</v>
@@ -7722,7 +7728,7 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>118</v>
@@ -7779,7 +7785,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -7799,13 +7805,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>76</v>
@@ -7830,7 +7836,7 @@
         <v>90</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>102</v>
@@ -7904,7 +7910,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>104</v>
@@ -8007,7 +8013,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>106</v>
@@ -8110,7 +8116,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>108</v>
@@ -8153,7 +8159,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>76</v>
@@ -8215,7 +8221,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>116</v>
@@ -8241,7 +8247,7 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>118</v>
@@ -8298,7 +8304,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -8318,13 +8324,13 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>76</v>
@@ -8349,7 +8355,7 @@
         <v>90</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>102</v>
@@ -8423,7 +8429,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>104</v>
@@ -8526,7 +8532,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>106</v>
@@ -8629,7 +8635,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>108</v>
@@ -8672,7 +8678,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>76</v>
@@ -8734,7 +8740,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>116</v>
@@ -8817,7 +8823,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -8837,13 +8843,13 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>76</v>
@@ -8868,7 +8874,7 @@
         <v>90</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>102</v>
@@ -8942,7 +8948,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>104</v>
@@ -9045,7 +9051,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>106</v>
@@ -9148,7 +9154,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>108</v>
@@ -9191,7 +9197,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>76</v>
@@ -9253,7 +9259,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>116</v>
@@ -9336,7 +9342,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -9356,13 +9362,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>76</v>
@@ -9387,7 +9393,7 @@
         <v>90</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>102</v>
@@ -9461,7 +9467,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>104</v>
@@ -9564,7 +9570,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>106</v>
@@ -9667,7 +9673,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>108</v>
@@ -9710,7 +9716,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>76</v>
@@ -9772,7 +9778,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>116</v>
@@ -9855,7 +9861,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -9875,13 +9881,13 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>76</v>
@@ -9906,7 +9912,7 @@
         <v>90</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>102</v>
@@ -9980,7 +9986,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>104</v>
@@ -10083,7 +10089,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>106</v>
@@ -10186,7 +10192,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
@@ -10229,7 +10235,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>76</v>
@@ -10291,7 +10297,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>116</v>
@@ -10374,7 +10380,7 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -10394,13 +10400,13 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>76</v>
@@ -10425,7 +10431,7 @@
         <v>90</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>102</v>
@@ -10499,7 +10505,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>104</v>
@@ -10602,7 +10608,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>106</v>
@@ -10705,7 +10711,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>108</v>
@@ -10748,7 +10754,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>76</v>
@@ -10810,7 +10816,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>116</v>
@@ -10893,7 +10899,7 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -10913,13 +10919,13 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>76</v>
@@ -10944,7 +10950,7 @@
         <v>90</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>102</v>
@@ -11018,7 +11024,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>104</v>
@@ -11121,7 +11127,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>106</v>
@@ -11224,7 +11230,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>108</v>
@@ -11267,7 +11273,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>76</v>
@@ -11329,7 +11335,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>116</v>
@@ -11355,7 +11361,7 @@
         <v>76</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>118</v>
@@ -11392,7 +11398,7 @@
       </c>
       <c r="Y99" s="2"/>
       <c r="Z99" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>76</v>
@@ -11410,7 +11416,7 @@
         <v>76</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -11535,10 +11541,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -11561,7 +11567,7 @@
         <v>76</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>118</v>
@@ -11618,7 +11624,7 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T00:33:17+00:00</t>
+    <t>2023-05-08T00:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-ptAddress.xlsx
+++ b/branches/main/StructureDefinition-ptAddress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T00:44:39+00:00</t>
+    <t>2023-06-02T10:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
